--- a/texs/C-Integer-Arithmetic-101/C Arithmetic.xlsx
+++ b/texs/C-Integer-Arithmetic-101/C Arithmetic.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Website\texs\C-Integer-Arithmetic-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80C49CB-DDA6-4601-BC90-94046BC7C4FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24705" windowHeight="12225" xr2:uid="{F28ED4FA-E660-44CD-BB79-91CB85AA3F71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24710" windowHeight="12230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>unsigned char</t>
   </si>
@@ -100,9 +99,6 @@
   </si>
   <si>
     <t>operand with signed integer type.</t>
-  </si>
-  <si>
-    <t>2e) Otherwise, both operands are converted to the unsigned integer type</t>
   </si>
   <si>
     <t>2a</t>
@@ -281,12 +277,46 @@
       <t xml:space="preserve"> to the type of the operand with signed integer type.</t>
     </r>
   </si>
+  <si>
+    <t>signed
+int</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2e) Otherwise, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operands are converted to the unsigned integer type</t>
+    </r>
+  </si>
+  <si>
+    <t>unsigned
+long</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +328,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -440,9 +478,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,6 +507,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,189 +831,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935C5164-FE9A-4EB1-A5BD-49C33DB6177E}">
-  <dimension ref="B2:Q45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="11">
         <v>2</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>2</v>
       </c>
-      <c r="I2" s="13">
-        <v>4</v>
-      </c>
-      <c r="J2" s="13">
-        <v>4</v>
-      </c>
-      <c r="K2" s="13">
-        <v>4</v>
-      </c>
-      <c r="L2" s="13">
-        <v>4</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="I2" s="11">
+        <v>4</v>
+      </c>
+      <c r="J2" s="11">
+        <v>4</v>
+      </c>
+      <c r="K2" s="11">
+        <v>4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>4</v>
+      </c>
+      <c r="M2" s="11">
         <v>8</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="12">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="16" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <v>2</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>2</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>3</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <v>3</v>
       </c>
-      <c r="K3" s="15">
-        <v>4</v>
-      </c>
-      <c r="L3" s="15">
-        <v>4</v>
-      </c>
-      <c r="M3" s="15">
+      <c r="K3" s="13">
+        <v>4</v>
+      </c>
+      <c r="L3" s="13">
+        <v>4</v>
+      </c>
+      <c r="M3" s="13">
         <v>5</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -974,38 +1021,38 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="16">
         <v>2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1014,35 +1061,35 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="M7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
         <v>2</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1052,32 +1099,32 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>4</v>
-      </c>
-      <c r="C9" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="14">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1088,29 +1135,29 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="M9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>4</v>
-      </c>
-      <c r="C10" s="16">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="16">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1122,26 +1169,26 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1154,23 +1201,23 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <v>4</v>
-      </c>
-      <c r="C12" s="16">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="16">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1184,20 +1231,20 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1212,17 +1259,17 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="17">
         <v>8</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1238,530 +1285,1050 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="10"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>2</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>4</v>
+      </c>
+      <c r="K16" s="11">
+        <v>4</v>
+      </c>
+      <c r="L16" s="11">
+        <v>4</v>
+      </c>
+      <c r="M16" s="11">
+        <v>8</v>
+      </c>
+      <c r="N16" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>2</v>
+      </c>
+      <c r="H17" s="13">
+        <v>2</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="13">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13">
+        <v>4</v>
+      </c>
+      <c r="L17" s="13">
+        <v>4</v>
+      </c>
+      <c r="M17" s="13">
+        <v>5</v>
+      </c>
+      <c r="N17" s="15">
+        <v>5</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+    </row>
+    <row r="18" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="K17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="K20" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="K22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="K23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="K24" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="K25" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="E18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="16">
+        <v>1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="16">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="16">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="16">
+        <v>4</v>
+      </c>
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16">
+        <v>4</v>
+      </c>
+      <c r="C24" s="14">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="16">
+        <v>4</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="16">
+        <v>8</v>
+      </c>
+      <c r="C27" s="14">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+    </row>
+    <row r="28" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="17">
+        <v>8</v>
+      </c>
+      <c r="C28" s="18">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B30" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="K30" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="K31" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B32" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="K32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="K33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="K34" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="K35" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="K36" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="K37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="K38" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="K40" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="K27" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="K41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="K28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="K43" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="K30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="K44" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="K31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="K45" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="K32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="K47" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B48" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="K34" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="K48" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B49" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="K35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="K49" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="K36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="K37" s="10" t="s">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="K50" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K39" s="10" t="s">
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K52" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K40" s="10" t="s">
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K53" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K41" s="10" t="s">
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K54" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K42" s="10" t="s">
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K55" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K44" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K45" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K57" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K58" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
     <mergeCell ref="K45:Q45"/>
     <mergeCell ref="K39:Q39"/>
     <mergeCell ref="K40:Q40"/>
@@ -1769,49 +2336,6 @@
     <mergeCell ref="K42:Q42"/>
     <mergeCell ref="K43:Q43"/>
     <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K27:Q27"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="K24:Q24"/>
-    <mergeCell ref="K25:Q25"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/texs/C-Integer-Arithmetic-101/C Arithmetic.xlsx
+++ b/texs/C-Integer-Arithmetic-101/C Arithmetic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Website\texs\C-Integer-Arithmetic-101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\Website\texs\C-Integer-Arithmetic-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C44DF2-7096-4BC4-BD7B-553AF0DFA560}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24710" windowHeight="12230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24705" windowHeight="12225" tabRatio="316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="77">
   <si>
     <t>unsigned char</t>
   </si>
@@ -315,7 +316,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -507,15 +514,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -831,29 +841,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.26953125" customWidth="1"/>
-    <col min="12" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="19"/>
       <c r="D2" s="11" t="s">
@@ -890,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="D3" s="14" t="s">
@@ -927,7 +937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
@@ -968,7 +978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -1048,7 +1058,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -1085,7 +1095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>2</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -1153,7 +1163,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>4</v>
       </c>
@@ -1184,7 +1194,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>4</v>
       </c>
@@ -1213,7 +1223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>4</v>
       </c>
@@ -1240,7 +1250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -1265,7 +1275,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="17">
         <v>8</v>
       </c>
@@ -1288,7 +1298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="19"/>
       <c r="D16" s="11" t="s">
@@ -1324,8 +1334,43 @@
       <c r="N16" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="P16" s="10"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+      <c r="T16" s="11">
+        <v>1</v>
+      </c>
+      <c r="U16" s="11">
+        <v>2</v>
+      </c>
+      <c r="V16" s="11">
+        <v>2</v>
+      </c>
+      <c r="W16" s="11">
+        <v>4</v>
+      </c>
+      <c r="X16" s="11">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>8</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="14" t="s">
@@ -1362,10 +1407,43 @@
         <v>5</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P17" s="20"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1</v>
+      </c>
+      <c r="T17" s="13">
+        <v>1</v>
+      </c>
+      <c r="U17" s="13">
+        <v>2</v>
+      </c>
+      <c r="V17" s="13">
+        <v>2</v>
+      </c>
+      <c r="W17" s="13">
+        <v>3</v>
+      </c>
+      <c r="X17" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
@@ -1406,10 +1484,47 @@
         <v>36</v>
       </c>
       <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>1</v>
       </c>
@@ -1419,41 +1534,78 @@
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="27" t="s">
+      <c r="E19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K19" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="27" t="s">
+      <c r="L19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="27" t="s">
+      <c r="N19" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P19" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z19" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>1</v>
       </c>
@@ -1464,38 +1616,73 @@
         <v>0</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="27" t="s">
+      <c r="F20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P20" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>2</v>
       </c>
@@ -1507,35 +1694,68 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="27" t="s">
+      <c r="G21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P21" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y21" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB21" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>2</v>
       </c>
@@ -1548,32 +1768,63 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="27" t="s">
+      <c r="H22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="K22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="27" t="s">
+      <c r="N22" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P22" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB22" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>4</v>
       </c>
@@ -1587,29 +1838,58 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="27" t="s">
+      <c r="I23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="27" t="s">
+      <c r="N23" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y23" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB23" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>4</v>
       </c>
@@ -1624,26 +1904,53 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="27" t="s">
+      <c r="N24" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P24" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>3</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB24" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>4</v>
       </c>
@@ -1659,23 +1966,48 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="27" t="s">
+      <c r="L25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="27" t="s">
+      <c r="N25" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P25" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>4</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>4</v>
       </c>
@@ -1692,20 +2024,43 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="27" t="s">
+      <c r="N26" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P26" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>4</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB26" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>8</v>
       </c>
@@ -1723,17 +2078,38 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="27" t="s">
+      <c r="N27" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="P27" s="16">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>5</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB27" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="17">
         <v>8</v>
       </c>
@@ -1752,563 +2128,587 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="27" t="s">
+      <c r="N28" s="22" t="s">
         <v>36</v>
       </c>
       <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="P28" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>5</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="K30" s="23" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="K30" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="25" t="s">
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="K31" s="22" t="s">
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="K31" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B32" s="25" t="s">
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="K32" s="22" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="K32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B33" s="25" t="s">
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="K33" s="22" t="s">
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="K33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B34" s="25" t="s">
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="K34" s="22" t="s">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="K34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B35" s="25" t="s">
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="K35" s="22" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="K35" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B36" s="25" t="s">
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="K36" s="22" t="s">
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="K36" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B37" s="25" t="s">
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="K37" s="22" t="s">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="K37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B38" s="25" t="s">
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="K38" s="22" t="s">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="K38" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B39" s="25" t="s">
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B40" s="25" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="K40" s="23" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="K40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B41" s="25" t="s">
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="K41" s="22" t="s">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="K41" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B42" s="25" t="s">
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B43" s="25" t="s">
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="K43" s="22" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="K43" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B44" s="25" t="s">
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="K44" s="22" t="s">
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="K44" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B45" s="25" t="s">
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="K45" s="22" t="s">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="K45" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B46" s="25" t="s">
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B47" s="25" t="s">
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="K47" s="22" t="s">
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="K47" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B48" s="25" t="s">
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="K48" s="22" t="s">
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="K48" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B49" s="25" t="s">
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B49" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="K49" s="22" t="s">
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="K49" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B50" s="25" t="s">
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B50" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="K50" s="22" t="s">
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="K50" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K52" s="22" t="s">
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K52" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K53" s="22" t="s">
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K53" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K54" s="22" t="s">
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K54" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K55" s="22" t="s">
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K55" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K57" s="22" t="s">
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K57" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="K58" s="22" t="s">
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K58" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K56:Q56"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B45:I45"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="K46:Q46"/>
     <mergeCell ref="B46:I46"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B45:I45"/>
     <mergeCell ref="B34:I34"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="B36:I36"/>
@@ -2319,23 +2719,18 @@
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/texs/C-Integer-Arithmetic-101/C Arithmetic.xlsx
+++ b/texs/C-Integer-Arithmetic-101/C Arithmetic.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\Website\texs\C-Integer-Arithmetic-101\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\Website\texs\C-Integer-Arithmetic-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C44DF2-7096-4BC4-BD7B-553AF0DFA560}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24705" windowHeight="12225" tabRatio="316" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24710" windowHeight="12230" tabRatio="316"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="78">
   <si>
     <t>unsigned char</t>
   </si>
@@ -312,11 +311,14 @@
     <t>unsigned
 long</t>
   </si>
+  <si>
+    <t>LLP64 Programming Model</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +492,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -511,22 +512,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,107 +851,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16:Q17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="14" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.26953125" customWidth="1"/>
+    <col min="12" max="14" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="11" t="s">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>2</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="10">
         <v>2</v>
       </c>
-      <c r="I2" s="11">
-        <v>4</v>
-      </c>
-      <c r="J2" s="11">
-        <v>4</v>
-      </c>
-      <c r="K2" s="11">
-        <v>4</v>
-      </c>
-      <c r="L2" s="11">
-        <v>4</v>
-      </c>
-      <c r="M2" s="11">
+      <c r="I2" s="10">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>4</v>
+      </c>
+      <c r="K2" s="10">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10">
+        <v>4</v>
+      </c>
+      <c r="M2" s="10">
         <v>8</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="14" t="s">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>2</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>3</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>3</v>
       </c>
-      <c r="K3" s="13">
-        <v>4</v>
-      </c>
-      <c r="L3" s="13">
-        <v>4</v>
-      </c>
-      <c r="M3" s="13">
+      <c r="K3" s="12">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12">
         <v>5</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -978,11 +992,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1019,11 +1033,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="16">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1058,11 +1072,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="16">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B7" s="15">
         <v>2</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1095,11 +1109,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8" s="15">
         <v>2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1130,11 +1144,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="16">
-        <v>4</v>
-      </c>
-      <c r="C9" s="14">
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1163,11 +1177,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="16">
-        <v>4</v>
-      </c>
-      <c r="C10" s="14">
+    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B10" s="15">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1194,11 +1208,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>4</v>
-      </c>
-      <c r="C11" s="14">
+    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B11" s="15">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1223,11 +1237,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>4</v>
-      </c>
-      <c r="C12" s="14">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1250,11 +1264,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B13" s="15">
         <v>8</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1275,11 +1289,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="17">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
         <v>8</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1298,156 +1312,160 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="11" t="s">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>1</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>2</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>2</v>
       </c>
-      <c r="I16" s="11">
-        <v>4</v>
-      </c>
-      <c r="J16" s="11">
-        <v>4</v>
-      </c>
-      <c r="K16" s="11">
-        <v>4</v>
-      </c>
-      <c r="L16" s="11">
-        <v>4</v>
-      </c>
-      <c r="M16" s="11">
+      <c r="I16" s="10">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="10">
+        <v>4</v>
+      </c>
+      <c r="L16" s="10">
+        <v>4</v>
+      </c>
+      <c r="M16" s="10">
         <v>8</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>8</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="11" t="s">
+      <c r="P16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="10">
         <v>1</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>1</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="10">
         <v>2</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="10">
         <v>2</v>
       </c>
-      <c r="W16" s="11">
-        <v>4</v>
-      </c>
-      <c r="X16" s="11">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>4</v>
-      </c>
-      <c r="Z16" s="11">
-        <v>4</v>
-      </c>
-      <c r="AA16" s="11">
+      <c r="W16" s="10">
+        <v>4</v>
+      </c>
+      <c r="X16" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="10">
         <v>8</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AB16" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="14" t="s">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>1</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>2</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>3</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>3</v>
       </c>
-      <c r="K17" s="13">
-        <v>4</v>
-      </c>
-      <c r="L17" s="13">
-        <v>4</v>
-      </c>
-      <c r="M17" s="13">
+      <c r="K17" s="12">
+        <v>4</v>
+      </c>
+      <c r="L17" s="12">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12">
         <v>5</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>5</v>
       </c>
       <c r="O17" s="7"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="14" t="s">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <v>1</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12">
         <v>1</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12">
         <v>2</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="12">
         <v>2</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="12">
         <v>3</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="12">
         <v>3</v>
       </c>
-      <c r="Y17" s="13">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="13">
+      <c r="Y17" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="12">
         <v>5</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AB17" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1484,10 +1502,10 @@
         <v>36</v>
       </c>
       <c r="O18" s="8"/>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="R18" s="9" t="s">
@@ -1524,169 +1542,169 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
+    <row r="19" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="22" t="s">
+      <c r="E19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O19" s="8"/>
-      <c r="P19" s="16">
+      <c r="P19" s="15">
         <v>1</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="13">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="T19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X19" s="22" t="s">
+      <c r="S19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="X19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="29" t="s">
+      <c r="Y19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Z19" s="22" t="s">
+      <c r="Z19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AA19" s="29" t="s">
+      <c r="AA19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB19" s="22" t="s">
+      <c r="AB19" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
+    <row r="20" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="22" t="s">
+      <c r="F20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O20" s="8"/>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>1</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="s">
         <v>0</v>
       </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="V20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="W20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="X20" s="29" t="s">
+      <c r="T20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="22" t="s">
+      <c r="Y20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z20" s="29" t="s">
+      <c r="Z20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA20" s="22" t="s">
+      <c r="AA20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AB20" s="29" t="s">
+      <c r="AB20" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="16">
+    <row r="21" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="15">
         <v>2</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1694,35 +1712,35 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J21" s="22" t="s">
+      <c r="G21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="22" t="s">
+      <c r="M21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="8"/>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>2</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="13">
         <v>2</v>
       </c>
       <c r="R21" s="2" t="s">
@@ -1730,36 +1748,36 @@
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="U21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="W21" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X21" s="22" t="s">
+      <c r="U21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="V21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y21" s="29" t="s">
+      <c r="Y21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Z21" s="22" t="s">
+      <c r="Z21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="29" t="s">
+      <c r="AA21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB21" s="22" t="s">
+      <c r="AB21" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="16">
+    <row r="22" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B22" s="15">
         <v>2</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1768,32 +1786,32 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="22" t="s">
+      <c r="H22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="22" t="s">
+      <c r="L22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O22" s="8"/>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>2</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <v>2</v>
       </c>
       <c r="R22" s="2" t="s">
@@ -1802,33 +1820,33 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-      <c r="V22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="W22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="X22" s="29" t="s">
+      <c r="V22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="X22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Y22" s="22" t="s">
+      <c r="Y22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="Z22" s="29" t="s">
+      <c r="Z22" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA22" s="22" t="s">
+      <c r="AA22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AB22" s="29" t="s">
+      <c r="AB22" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="16">
-        <v>4</v>
-      </c>
-      <c r="C23" s="14">
+    <row r="23" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="15">
+        <v>4</v>
+      </c>
+      <c r="C23" s="13">
         <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1838,29 +1856,29 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="I23" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O23" s="8"/>
-      <c r="P23" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="14">
+      <c r="P23" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="13">
         <v>3</v>
       </c>
       <c r="R23" s="2" t="s">
@@ -1870,30 +1888,30 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
-      <c r="W23" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="X23" s="22" t="s">
+      <c r="W23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="X23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Y23" s="29" t="s">
+      <c r="Y23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Z23" s="22" t="s">
+      <c r="Z23" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AA23" s="29" t="s">
+      <c r="AA23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB23" s="22" t="s">
+      <c r="AB23" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>4</v>
-      </c>
-      <c r="C24" s="14">
+    <row r="24" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="15">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1904,26 +1922,26 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O24" s="8"/>
-      <c r="P24" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="14">
+      <c r="P24" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="13">
         <v>3</v>
       </c>
       <c r="R24" s="2" t="s">
@@ -1934,27 +1952,27 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="29" t="s">
+      <c r="X24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="Y24" s="23" t="s">
+      <c r="Y24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="Z24" s="29" t="s">
+      <c r="Z24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA24" s="22" t="s">
+      <c r="AA24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AB24" s="29" t="s">
+      <c r="AB24" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="16">
-        <v>4</v>
-      </c>
-      <c r="C25" s="14">
+    <row r="25" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="15">
+        <v>4</v>
+      </c>
+      <c r="C25" s="13">
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1966,23 +1984,23 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M25" s="22" t="s">
+      <c r="M25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O25" s="8"/>
-      <c r="P25" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="14">
+      <c r="P25" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="13">
         <v>4</v>
       </c>
       <c r="R25" s="2" t="s">
@@ -1994,24 +2012,24 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="29" t="s">
+      <c r="Y25" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Z25" s="22" t="s">
+      <c r="Z25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AA25" s="29" t="s">
+      <c r="AA25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB25" s="22" t="s">
+      <c r="AB25" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="16">
-        <v>4</v>
-      </c>
-      <c r="C26" s="14">
+    <row r="26" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="15">
+        <v>4</v>
+      </c>
+      <c r="C26" s="13">
         <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2024,20 +2042,20 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O26" s="6"/>
-      <c r="P26" s="16">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="14">
+      <c r="P26" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="13">
         <v>4</v>
       </c>
       <c r="R26" s="2" t="s">
@@ -2050,21 +2068,21 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="29" t="s">
+      <c r="Z26" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AA26" s="22" t="s">
+      <c r="AA26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AB26" s="29" t="s">
+      <c r="AB26" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
+    <row r="27" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="15">
         <v>8</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2078,17 +2096,17 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O27" s="7"/>
-      <c r="P27" s="16">
+      <c r="P27" s="15">
         <v>8</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="13">
         <v>5</v>
       </c>
       <c r="R27" s="2" t="s">
@@ -2102,18 +2120,18 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="29" t="s">
+      <c r="AA27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AB27" s="22" t="s">
+      <c r="AB27" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="17">
+    <row r="28" spans="2:28" ht="29" x14ac:dyDescent="0.35">
+      <c r="B28" s="16">
         <v>8</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2128,14 +2146,14 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="18" t="s">
         <v>36</v>
       </c>
       <c r="O28" s="8"/>
-      <c r="P28" s="17">
+      <c r="P28" s="16">
         <v>8</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="17">
         <v>5</v>
       </c>
       <c r="R28" s="2" t="s">
@@ -2150,17 +2168,17 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="29" t="s">
+      <c r="AB28" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.35">
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B30" s="25" t="s">
         <v>51</v>
       </c>
@@ -2171,538 +2189,531 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B31" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="K31" s="24" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="K31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B32" s="26" t="s">
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B32" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="K32" s="24" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="K32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="26" t="s">
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="K33" s="24" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="K33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="K34" s="24" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="K34" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="K35" s="24" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="K35" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="26" t="s">
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="K36" s="24" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="K36" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="26" t="s">
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="K37" s="24" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="K37" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="26" t="s">
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="K38" s="24" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="K38" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="26" t="s">
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="26" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="K40" s="27" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="K40" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="26" t="s">
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="K41" s="24" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="K41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="26" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="K43" s="24" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="K43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="26" t="s">
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="K44" s="24" t="s">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="K44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="K45" s="24" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="K45" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="K47" s="24" t="s">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="K47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B48" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="K48" s="24" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="K48" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="26" t="s">
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B49" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="K49" s="24" t="s">
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="K49" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B50" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="K50" s="24" t="s">
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="K50" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K52" s="24" t="s">
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K52" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K53" s="24" t="s">
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K54" s="24" t="s">
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K54" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K55" s="24" t="s">
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K55" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K57" s="24" t="s">
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K57" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K58" s="24" t="s">
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="K58" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K35:Q35"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B50:I50"/>
-    <mergeCell ref="B45:I45"/>
+  <mergeCells count="53">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="K51:Q51"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B32:I32"/>
@@ -2719,18 +2730,28 @@
     <mergeCell ref="B41:I41"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B43:I43"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="K49:Q49"/>
-    <mergeCell ref="K50:Q50"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K57:Q57"/>
-    <mergeCell ref="K58:Q58"/>
-    <mergeCell ref="K52:Q52"/>
-    <mergeCell ref="K53:Q53"/>
-    <mergeCell ref="K54:Q54"/>
-    <mergeCell ref="K55:Q55"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
